--- a/diagramas de grid.xlsx
+++ b/diagramas de grid.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leogo\OneDrive\Escritorio\Archivos\programas\Proyectos\gestorDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5CEAE57-B042-48BB-A9CC-D434919F9B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B22434F-342C-494B-9ABE-2E287FBFBAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1050" windowWidth="21600" windowHeight="13425" xr2:uid="{2455443E-BE27-4471-B032-A44502C2D5D6}"/>
+    <workbookView xWindow="3030" yWindow="1590" windowWidth="21600" windowHeight="13425" activeTab="4" xr2:uid="{2455443E-BE27-4471-B032-A44502C2D5D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario" sheetId="1" r:id="rId1"/>
+    <sheet name="Chuleta" sheetId="2" r:id="rId2"/>
+    <sheet name="Cláusula" sheetId="3" r:id="rId3"/>
+    <sheet name="Menú de inicio" sheetId="4" r:id="rId4"/>
+    <sheet name="Obligación, contratos e incumpl" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>calenGridGeneral: tiene el buscador de fechas, el label de fechas, el separador y la caja grid con la tabla del calendario</t>
   </si>
@@ -68,16 +72,258 @@
     <t>Cel: contenido de la celda</t>
   </si>
   <si>
+    <t>Titulo</t>
+  </si>
+  <si>
     <t>Título</t>
+  </si>
+  <si>
+    <t>Estructura general:</t>
+  </si>
+  <si>
+    <t>clase "boxChuleta", contenedor de todo</t>
+  </si>
+  <si>
+    <t>clase "tituloChuleta"</t>
+  </si>
+  <si>
+    <t>clase "tablaxFideo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contiene el título del fideicomiso, lit es solamente un texto </t>
+  </si>
+  <si>
+    <t>clase "tablaxBanco"</t>
+  </si>
+  <si>
+    <t>Es una columna de una tabla de la chuleta</t>
+  </si>
+  <si>
+    <t>Div que contiene más divs, de tipo "tablaxBanco", puede haber n números de tablaxBanco en cada tablaxFideo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siempre tendrá, estos dos en ese orden (puede haber varios de estos dos): </t>
+  </si>
+  <si>
+    <t>Siempre tendrá:</t>
+  </si>
+  <si>
+    <t>Al menos un texto con clase "encabezado"</t>
+  </si>
+  <si>
+    <t>n cantidad de textos con clase "celda"</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">los auto son para que los separadores no ocupen mucho espacio y solamente lo necesario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titulo </t>
+  </si>
+  <si>
+    <t>separador vertical</t>
+  </si>
+  <si>
+    <t>Separador horizontal</t>
+  </si>
+  <si>
+    <t>boxClaus en inglés</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boxClaus en español</t>
+  </si>
+  <si>
+    <t>boxClaus tiene siempre 2 elementos:</t>
+  </si>
+  <si>
+    <t>título de la cláusula, que todavía no tiene clase</t>
+  </si>
+  <si>
+    <t>textClaus: con todo el texto de la cláusula</t>
+  </si>
+  <si>
+    <t>boxOpciones: con los botones pues</t>
+  </si>
+  <si>
+    <t>Panel activo</t>
+  </si>
+  <si>
+    <t>Paneles</t>
+  </si>
+  <si>
+    <t>Son 5 opciones, por lo tanto son 5 paneles</t>
+  </si>
+  <si>
+    <t>Los 5 paneles siempre existen, pero con css y js, solamente uno se ve</t>
+  </si>
+  <si>
+    <t>Por orden de colocación, el panel activo irá en esa tercera columna, la más grande</t>
+  </si>
+  <si>
+    <t>boxOpciones</t>
+  </si>
+  <si>
+    <t>botón1</t>
+  </si>
+  <si>
+    <t>botón2</t>
+  </si>
+  <si>
+    <t>botón3</t>
+  </si>
+  <si>
+    <t>botón4</t>
+  </si>
+  <si>
+    <t>botón5</t>
+  </si>
+  <si>
+    <t>separador</t>
+  </si>
+  <si>
+    <t>form clase botClose</t>
+  </si>
+  <si>
+    <t>El form de clase botClose tiene dentro</t>
+  </si>
+  <si>
+    <t>Un botón de type submit, el de cerrar sesión</t>
+  </si>
+  <si>
+    <t>Estas tres opciones en general, tiene el mismo formato</t>
+  </si>
+  <si>
+    <t>Dentro de un panel, ya va todo el contenido de la opción</t>
+  </si>
+  <si>
+    <t>Solamente cambia la tabla de resultados</t>
+  </si>
+  <si>
+    <t>clase .boxBusqGeneral, es el común entre las tres opciones</t>
+  </si>
+  <si>
+    <t>Esa caja de hasta abajo es la que cambiará dependiendo de la opción</t>
+  </si>
+  <si>
+    <t>esta caja tiene boxBusq, un separador y otra caja hasta abajo</t>
+  </si>
+  <si>
+    <t>boxBusq tiene el buscador</t>
+  </si>
+  <si>
+    <t>boxBusq</t>
+  </si>
+  <si>
+    <t>Caja de búsqueda</t>
+  </si>
+  <si>
+    <t>menuFid</t>
+  </si>
+  <si>
+    <t>menuBan</t>
+  </si>
+  <si>
+    <t>menuProy</t>
+  </si>
+  <si>
+    <t>labelFid</t>
+  </si>
+  <si>
+    <t>labenBanc</t>
+  </si>
+  <si>
+    <t>labelProy</t>
+  </si>
+  <si>
+    <t>Columna 3 y 6, son más grandes porque son sólo espacios</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estructura de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boxBusq</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Estructura de caja de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>búsqueda</t>
+    </r>
+  </si>
+  <si>
+    <t>Es igual en los 3 casos, pero cambia el número de columnas</t>
+  </si>
+  <si>
+    <t>Para contratos</t>
+  </si>
+  <si>
+    <t>Para obligaciones e inclumplimientos</t>
+  </si>
+  <si>
+    <t>En incumplimientos, puede pasar que no se hayan especificado y sal este mensajito</t>
+  </si>
+  <si>
+    <t>Mensaje de que no se especificó</t>
+  </si>
+  <si>
+    <t>Para este mensjae, la clase no es celda</t>
+  </si>
+  <si>
+    <t>es posWarEmpty</t>
+  </si>
+  <si>
+    <t>Para que pueda ocupar mucho espacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como se meustra </t>
+  </si>
+  <si>
+    <t>&lt;- acá</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -98,6 +344,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -113,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -318,31 +583,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,6 +653,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,10 +698,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,6 +753,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B5769A-6744-489E-A6E9-C6FFDFAFB03A}">
-  <dimension ref="B2:AI29"/>
+  <dimension ref="B2:AI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R21" sqref="R20:Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -780,106 +1232,106 @@
     <row r="2" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
     </row>
     <row r="3" spans="2:35" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>4</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>5</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>6</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <v>7</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>8</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <v>9</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="6">
         <v>10</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="6">
         <v>11</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="7">
         <v>12</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="6">
         <v>13</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
+      <c r="D4" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="2:35" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
@@ -899,7 +1351,7 @@
     </row>
     <row r="6" spans="2:35" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>3</v>
       </c>
       <c r="D6" s="3"/>
@@ -907,475 +1359,480 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="2:35" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="12" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="11"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="31"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>6</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="33"/>
-      <c r="AI9" s="37"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="43"/>
+      <c r="AI9" s="47"/>
     </row>
     <row r="10" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>7</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="33"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>8</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="33"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>9</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="33"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="43"/>
     </row>
     <row r="13" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="33"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>11</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="33"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="43"/>
     </row>
     <row r="15" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>12</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="33"/>
-      <c r="X15" s="37"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="43"/>
+      <c r="X15" s="47"/>
     </row>
     <row r="16" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>13</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="33"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="3:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>14</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="36"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
     </row>
     <row r="19" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="25">
+      <c r="D19" s="36">
         <v>1</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>2</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25">
+      <c r="G19" s="36"/>
+      <c r="H19" s="36">
         <v>3</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25">
+      <c r="I19" s="36"/>
+      <c r="J19" s="36">
         <v>4</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36">
         <v>5</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25">
+      <c r="M19" s="36"/>
+      <c r="N19" s="36">
         <v>6</v>
       </c>
-      <c r="O19" s="25"/>
+      <c r="O19" s="36"/>
     </row>
     <row r="20" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="25">
+      <c r="C20" s="36">
         <v>1</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="38"/>
+      <c r="H20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28" t="s">
+      <c r="I20" s="38"/>
+      <c r="J20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28" t="s">
+      <c r="K20" s="38"/>
+      <c r="L20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28" t="s">
+      <c r="M20" s="38"/>
+      <c r="N20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O20" s="29"/>
-      <c r="R20" s="9" t="s">
+      <c r="O20" s="39"/>
+      <c r="R20" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
     </row>
     <row r="21" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="25"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="19"/>
-      <c r="R21" s="9" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="26"/>
+      <c r="R21" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="25">
+      <c r="C22" s="36">
         <v>2</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8" t="s">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8" t="s">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8" t="s">
+      <c r="M22" s="11"/>
+      <c r="N22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="19"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="25"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="19"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="25">
+      <c r="C24" s="36">
         <v>3</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8" t="s">
+      <c r="I24" s="11"/>
+      <c r="J24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8" t="s">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8" t="s">
+      <c r="M24" s="11"/>
+      <c r="N24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O24" s="19"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="25"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="19"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="25">
+      <c r="C26" s="36">
         <v>4</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8" t="s">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
+      <c r="M26" s="11"/>
+      <c r="N26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="19"/>
+      <c r="O26" s="26"/>
     </row>
     <row r="27" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="25"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="29"/>
     </row>
     <row r="28" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="95" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="95" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="30" spans="3:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -1425,4 +1882,1839 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8489ACF-3BC6-4018-84C3-213393E576AB}">
+  <dimension ref="C2:AF12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="3:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="3:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="3:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="3:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+    </row>
+    <row r="9" spans="3:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="3:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="3:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="3:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:Q9"/>
+    <mergeCell ref="I6:AF6"/>
+    <mergeCell ref="C4:S4"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED81029F-E1EE-42E2-9093-3F8B15213E0C}">
+  <dimension ref="C3:AN17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" customWidth="1"/>
+    <col min="11" max="13" width="4.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="57">
+        <v>1</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58">
+        <v>2</v>
+      </c>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="57">
+        <v>3</v>
+      </c>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="U3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+    </row>
+    <row r="4" spans="3:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="65">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="41"/>
+    </row>
+    <row r="5" spans="3:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="65"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
+      <c r="U5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="3:40" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="59">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+    </row>
+    <row r="7" spans="3:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="56">
+        <v>3</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="69"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="43"/>
+      <c r="U7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+    </row>
+    <row r="8" spans="3:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="56">
+        <v>4</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="43"/>
+    </row>
+    <row r="9" spans="3:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="56">
+        <v>5</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="43"/>
+    </row>
+    <row r="10" spans="3:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="56">
+        <v>6</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="43"/>
+    </row>
+    <row r="11" spans="3:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="56">
+        <v>7</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="43"/>
+    </row>
+    <row r="12" spans="3:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="56">
+        <v>8</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="3:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="56">
+        <v>9</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" spans="3:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="56">
+        <v>10</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="43"/>
+    </row>
+    <row r="15" spans="3:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="56">
+        <v>11</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="43"/>
+    </row>
+    <row r="16" spans="3:40" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="56">
+        <v>12</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="46"/>
+    </row>
+    <row r="17" spans="9:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="U5:AB5"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="U3:AN3"/>
+    <mergeCell ref="D4:R5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D7:H16"/>
+    <mergeCell ref="N7:R16"/>
+    <mergeCell ref="I7:J16"/>
+    <mergeCell ref="D6:R6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B15A5BD-BF56-4A22-BC2B-382B235D2E7E}">
+  <dimension ref="C2:AM26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="64">
+        <v>1</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="81">
+        <v>2</v>
+      </c>
+      <c r="H2" s="64">
+        <v>3</v>
+      </c>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+    </row>
+    <row r="3" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="63"/>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
+      <c r="V4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+    </row>
+    <row r="5" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="32"/>
+      <c r="V5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+    </row>
+    <row r="6" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="32"/>
+      <c r="V6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+    </row>
+    <row r="7" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
+      <c r="V7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="32"/>
+    </row>
+    <row r="9" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="32"/>
+    </row>
+    <row r="10" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
+    </row>
+    <row r="11" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="77"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
+    </row>
+    <row r="12" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="83"/>
+    </row>
+    <row r="15" spans="4:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="17" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="56">
+        <v>1</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="56">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="56">
+        <v>3</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="56">
+        <v>4</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="56">
+        <v>5</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="81">
+        <v>6</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="86"/>
+    </row>
+    <row r="23" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="56">
+        <v>7</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="52"/>
+      <c r="F23" s="88"/>
+    </row>
+    <row r="25" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="3:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="V5:AJ5"/>
+    <mergeCell ref="V4:AE4"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D3:F11"/>
+    <mergeCell ref="G3:G11"/>
+    <mergeCell ref="H3:S11"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:S2"/>
+    <mergeCell ref="G12:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C81105C-0640-458D-BB8E-024058A33008}">
+  <dimension ref="B2:AW31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="S3" s="55">
+        <v>1</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="39"/>
+      <c r="AE3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+    </row>
+    <row r="4" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="80">
+        <v>2</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+    </row>
+    <row r="5" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="79">
+        <v>3</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="32"/>
+    </row>
+    <row r="6" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="32"/>
+    </row>
+    <row r="7" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="32"/>
+      <c r="AE7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AK7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+    </row>
+    <row r="8" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="32"/>
+      <c r="AF8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94"/>
+      <c r="AL8" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36">
+        <v>3</v>
+      </c>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="36">
+        <v>4</v>
+      </c>
+      <c r="AS8" s="36"/>
+    </row>
+    <row r="9" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="79"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="32"/>
+      <c r="AE9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS9" s="39"/>
+    </row>
+    <row r="10" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="79"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="32"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="26"/>
+    </row>
+    <row r="11" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="79"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="32"/>
+      <c r="AE11" s="36">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="36">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS11" s="26"/>
+    </row>
+    <row r="12" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="32"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="26"/>
+    </row>
+    <row r="13" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="90">
+        <v>1</v>
+      </c>
+      <c r="D13" s="90">
+        <v>2</v>
+      </c>
+      <c r="E13" s="79">
+        <v>3</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="90">
+        <v>4</v>
+      </c>
+      <c r="H13" s="90">
+        <v>5</v>
+      </c>
+      <c r="I13" s="91">
+        <v>6</v>
+      </c>
+      <c r="J13" s="91"/>
+      <c r="K13" s="55">
+        <v>7</v>
+      </c>
+      <c r="L13" s="55">
+        <v>8</v>
+      </c>
+      <c r="S13" s="79"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="32"/>
+      <c r="AE13" s="36">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="36">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS13" s="26"/>
+    </row>
+    <row r="14" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="84">
+        <v>1</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="35"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="26"/>
+    </row>
+    <row r="15" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="84">
+        <v>2</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+      <c r="AE15" s="36">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="36">
+        <v>4</v>
+      </c>
+      <c r="AL15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS15" s="26"/>
+    </row>
+    <row r="16" spans="2:45" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="84">
+        <v>3</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="93"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="93"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="93"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="29"/>
+    </row>
+    <row r="17" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="84">
+        <v>4</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="93"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="93"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="93"/>
+      <c r="AE17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="AE18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO18" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+    </row>
+    <row r="19" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO19" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+    </row>
+    <row r="21" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF23" s="36">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36">
+        <v>2</v>
+      </c>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36">
+        <v>3</v>
+      </c>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36">
+        <v>4</v>
+      </c>
+      <c r="AM23" s="36"/>
+    </row>
+    <row r="24" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE24" s="36">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM24" s="39"/>
+    </row>
+    <row r="25" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="26"/>
+      <c r="AO25" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP25" s="89"/>
+      <c r="AQ25" s="89"/>
+      <c r="AR25" s="89"/>
+      <c r="AS25" s="89"/>
+      <c r="AT25" s="89"/>
+      <c r="AU25" s="89"/>
+      <c r="AV25" s="89"/>
+      <c r="AW25" s="89"/>
+    </row>
+    <row r="26" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE26" s="36">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="32"/>
+      <c r="AO26" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP26" s="89"/>
+      <c r="AQ26" s="89"/>
+      <c r="AR26" s="89"/>
+    </row>
+    <row r="27" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="32"/>
+      <c r="AO27" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP27" s="89"/>
+      <c r="AQ27" s="89"/>
+      <c r="AR27" s="89"/>
+      <c r="AS27" s="89"/>
+      <c r="AT27" s="89"/>
+      <c r="AU27" s="89"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="89"/>
+    </row>
+    <row r="28" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE28" s="36">
+        <v>3</v>
+      </c>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="32"/>
+      <c r="AO28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="32"/>
+      <c r="AO29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP29" s="12"/>
+    </row>
+    <row r="30" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE30" s="36">
+        <v>4</v>
+      </c>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="32"/>
+    </row>
+    <row r="31" spans="2:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="AO18:AV18"/>
+    <mergeCell ref="AO19:AT19"/>
+    <mergeCell ref="AO27:AW27"/>
+    <mergeCell ref="AO25:AW25"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AO29:AP29"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF26:AM31"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AJ23:AK23"/>
+    <mergeCell ref="AL23:AM23"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AG25"/>
+    <mergeCell ref="AH24:AI25"/>
+    <mergeCell ref="AJ24:AK25"/>
+    <mergeCell ref="AL24:AM25"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AR9:AS10"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AR11:AS12"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AR13:AS14"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AR15:AS16"/>
+    <mergeCell ref="AP15:AQ16"/>
+    <mergeCell ref="AE7:AH7"/>
+    <mergeCell ref="AK7:AS7"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AF15:AG16"/>
+    <mergeCell ref="AL15:AM16"/>
+    <mergeCell ref="AN15:AO16"/>
+    <mergeCell ref="AP13:AQ14"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AG14"/>
+    <mergeCell ref="AL13:AM14"/>
+    <mergeCell ref="AN13:AO14"/>
+    <mergeCell ref="AP9:AQ10"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AG12"/>
+    <mergeCell ref="AL11:AM12"/>
+    <mergeCell ref="AN11:AO12"/>
+    <mergeCell ref="AP11:AQ12"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AG10"/>
+    <mergeCell ref="AL9:AM10"/>
+    <mergeCell ref="AN9:AO10"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AE4:AQ4"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C14:L15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="T5:AA14"/>
+    <mergeCell ref="S5:S14"/>
+    <mergeCell ref="E13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>